--- a/biology/Zoologie/Colombe_aux_yeux_bleus/Colombe_aux_yeux_bleus.xlsx
+++ b/biology/Zoologie/Colombe_aux_yeux_bleus/Colombe_aux_yeux_bleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Columbina cyanopis
 La Colombe aux yeux bleus (Columbina cyanopis) est une espèce d'oiseau appartenant à la famille des Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 15 cm.
 Le mâle a la tête, le cou, les couvertures alaires, les sus-caudales et la poitrine roussâtre pourpre. Les teintes sont plus lumineuses sur le bas de la poitrine, le ventre, les flancs, le dos et les scapulaires, tandis que les sous-caudales sont blanches. Le dessous des ailes présente des points bleus iridescents. Les iris sont bleus (d'où le nom spécifique) et les cercles oculaires gris. Le bec est gris à la base et noir à l'extrémité et les pattes sont roses.
@@ -545,10 +559,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple le sud du Cerrado au Brésil (présent notamment dans la Serra das Araras au Mato Grosso).
-Cet oiseau est en danger critique d'extinction, aucun oiseau n'ayant été enregistré à l'état sauvage depuis 1941. Cependant, en 2016, une douzaine d'oiseaux ont été aperçus à Botumirim (Minas Gerais)[1].
+Cet oiseau est en danger critique d'extinction, aucun oiseau n'ayant été enregistré à l'état sauvage depuis 1941. Cependant, en 2016, une douzaine d'oiseaux ont été aperçus à Botumirim (Minas Gerais).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombe aux yeux bleus est rare et menacée d'extinction par suite de la perte de son habitat, le cerrado.
 </t>
